--- a/results/mod1.gndr.eff.COMB.xlsx
+++ b/results/mod1.gndr.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.674983857267784</v>
+        <v>0.67498382604885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.059922943918052</v>
+        <v>0.059922783939355</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.557537045340789</v>
+        <v>0.557537327674339</v>
       </c>
       <c r="F2" t="n">
-        <v>0.79243066919478</v>
+        <v>0.792430324423361</v>
       </c>
       <c r="G2" t="n">
-        <v>11.2641972028421</v>
+        <v>11.2642267544173</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0000000000000000000000000000197140396918078</v>
+        <v>0.0000000000000000000000000000197074275510863</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.64469647431224</v>
+        <v>0.644689920711459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0582050599390043</v>
+        <v>0.0582049528056384</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.530616653113796</v>
+        <v>0.530610309490554</v>
       </c>
       <c r="F3" t="n">
-        <v>0.758776295510683</v>
+        <v>0.758769531932363</v>
       </c>
       <c r="G3" t="n">
-        <v>11.076296029724</v>
+        <v>11.0762038217649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000000000000000000000000000163497224830595</v>
+        <v>0.000000000000000000000000000163665633981951</v>
       </c>
     </row>
   </sheetData>
